--- a/migforecasting/clustering/recommendation system/medians mse.xlsx
+++ b/migforecasting/clustering/recommendation system/medians mse.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>clust</t>
   </si>
@@ -124,6 +124,15 @@
   </si>
   <si>
     <t>mse-6</t>
+  </si>
+  <si>
+    <t>сред откл. от своих</t>
+  </si>
+  <si>
+    <t>ско от своих</t>
+  </si>
+  <si>
+    <t>сред по всем</t>
   </si>
 </sst>
 </file>
@@ -197,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,9 +227,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +524,10 @@
     <col min="19" max="19" width="11.28515625" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" customWidth="1"/>
     <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,7 +601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -668,7 +675,7 @@
         <v>1694472.181923596</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -742,7 +749,7 @@
         <v>40541.505671433268</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -816,7 +823,7 @@
         <v>2788668.019163108</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -890,7 +897,7 @@
         <v>83157.001906320322</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -964,7 +971,7 @@
         <v>831.85600360728415</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1038,35 +1045,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S8" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R10" s="8"/>
-      <c r="S10" s="6">
-        <f>AVERAGE(S3,S5,S6,S7)</f>
-        <v>1424491.3772133049</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S11" s="6">
-        <f>AVERAGE(T2,T4)</f>
-        <v>1685681.0814267183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S12" s="6">
-        <f>AVERAGE(U3,U5,U6,U7)</f>
-        <v>2433468.7332375571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S13" s="6">
-        <f>AVERAGE(V2,V4)</f>
-        <v>1469495.2017989699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="6">
+        <f>AVERAGE(T5:T7)</f>
+        <v>33154.739293995626</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6">
+        <f>AVERAGE(V3,V6,V7)</f>
+        <v>63046.99539728315</v>
+      </c>
+      <c r="W10" s="6">
+        <f>AVERAGE(W7,W5,W3)</f>
+        <v>50186.031832934801</v>
+      </c>
+      <c r="X10" s="6">
+        <f>AVERAGE(X6,X5,X3)</f>
+        <v>41510.121193786959</v>
+      </c>
+      <c r="Y10" s="5">
+        <f>AVERAGE(T10,V10,W10,X10)</f>
+        <v>46974.471929500134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6">
+        <f>_xlfn.STDEV.S(T5:T7)</f>
+        <v>22787.484741477369</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6">
+        <f>_xlfn.STDEV.S(V3,V6,V7)</f>
+        <v>48627.455343441412</v>
+      </c>
+      <c r="W11" s="6">
+        <f>_xlfn.STDEV.S(W3,W5,W7)</f>
+        <v>48791.052829108441</v>
+      </c>
+      <c r="X11" s="6">
+        <f>_xlfn.STDEV.S(X6,X5,X3)</f>
+        <v>41171.119416386478</v>
+      </c>
+      <c r="Y11" s="5">
+        <f>AVERAGE(T11,V11,W11,X11)</f>
+        <v>40344.278082603421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="S14" s="5"/>
     </row>
   </sheetData>
@@ -1239,5 +1290,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/migforecasting/clustering/recommendation system/medians mse.xlsx
+++ b/migforecasting/clustering/recommendation system/medians mse.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>clust</t>
   </si>
@@ -108,31 +108,13 @@
     <t>5</t>
   </si>
   <si>
-    <t>mse-2</t>
-  </si>
-  <si>
-    <t>mse-1</t>
-  </si>
-  <si>
-    <t>mse-3</t>
-  </si>
-  <si>
-    <t>mse-4</t>
-  </si>
-  <si>
-    <t>mse-5</t>
-  </si>
-  <si>
-    <t>mse-6</t>
-  </si>
-  <si>
     <t>сред откл. от своих</t>
   </si>
   <si>
     <t>ско от своих</t>
   </si>
   <si>
-    <t>сред по всем</t>
+    <t>сред</t>
   </si>
 </sst>
 </file>
@@ -165,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,7 +156,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,18 +200,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -226,7 +214,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,94 +511,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
     <col min="18" max="18" width="24.28515625" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" customWidth="1"/>
+    <col min="23" max="24" width="22.140625" customWidth="1"/>
     <col min="25" max="25" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>34</v>
+      <c r="S1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -653,25 +656,25 @@
       <c r="Q2" s="1">
         <v>5.5349344978165786E-2</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>0</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>1212512.240757182</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="9">
         <v>135587.11410040269</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="5">
         <v>1028396.881929368</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>1762584.204243073</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <v>1694472.181923596</v>
       </c>
     </row>
@@ -727,25 +730,25 @@
       <c r="Q3" s="1">
         <v>4.2149303274437257E-2</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>1212512.240757182</v>
       </c>
       <c r="T3" s="6">
         <v>0</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>2158849.9220962548</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="9">
         <v>7590.2285004428049</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="9">
         <v>51332.483710110791</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="9">
         <v>40541.505671433268</v>
       </c>
     </row>
@@ -801,25 +804,25 @@
       <c r="Q4" s="1">
         <v>5.9571629733936114E-2</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="9">
         <v>135587.11410040269</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>2158849.9220962548</v>
       </c>
       <c r="U4" s="6">
         <v>0</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="5">
         <v>1910593.521668572</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>2875763.4700222942</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="5">
         <v>2788668.019163108</v>
       </c>
     </row>
@@ -875,25 +878,25 @@
       <c r="Q5" s="1">
         <v>5.0271739130434492E-2</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>1028396.881929368</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="9">
         <v>7590.2285004428049</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="5">
         <v>1910593.521668572</v>
       </c>
       <c r="V5" s="6">
         <v>0</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="9">
         <v>98393.755785086338</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5" s="9">
         <v>83157.001906320322</v>
       </c>
     </row>
@@ -949,25 +952,25 @@
       <c r="Q6" s="1">
         <v>5.044179046509345E-2</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6" s="5">
         <v>1762584.204243073</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="9">
         <v>51332.483710110791</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="5">
         <v>2875763.4700222942</v>
       </c>
-      <c r="V6" s="6">
+      <c r="V6" s="9">
         <v>98393.755785086338</v>
       </c>
       <c r="W6" s="6">
         <v>0</v>
       </c>
-      <c r="X6" s="6">
+      <c r="X6" s="9">
         <v>831.85600360728415</v>
       </c>
     </row>
@@ -1023,22 +1026,22 @@
       <c r="Q7" s="1">
         <v>5.1650517326326501E-2</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>1694472.181923596</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="9">
         <v>40541.505671433268</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7" s="5">
         <v>2788668.019163108</v>
       </c>
-      <c r="V7" s="6">
+      <c r="V7" s="9">
         <v>83157.001906320322</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="9">
         <v>831.85600360728415</v>
       </c>
       <c r="X7" s="6">
@@ -1054,71 +1057,71 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
-      <c r="Y9" s="3" t="s">
-        <v>37</v>
+      <c r="Y9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="R10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="4">
         <f>AVERAGE(T5:T7)</f>
         <v>33154.739293995626</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6">
+      <c r="U10" s="4"/>
+      <c r="V10" s="4">
         <f>AVERAGE(V3,V6,V7)</f>
         <v>63046.99539728315</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="4">
         <f>AVERAGE(W7,W5,W3)</f>
         <v>50186.031832934801</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="4">
         <f>AVERAGE(X6,X5,X3)</f>
         <v>41510.121193786959</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="3">
         <f>AVERAGE(T10,V10,W10,X10)</f>
         <v>46974.471929500134</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="R11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6">
+      <c r="R11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4">
         <f>_xlfn.STDEV.S(T5:T7)</f>
         <v>22787.484741477369</v>
       </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6">
+      <c r="U11" s="4"/>
+      <c r="V11" s="4">
         <f>_xlfn.STDEV.S(V3,V6,V7)</f>
         <v>48627.455343441412</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="4">
         <f>_xlfn.STDEV.S(W3,W5,W7)</f>
         <v>48791.052829108441</v>
       </c>
-      <c r="X11" s="6">
+      <c r="X11" s="4">
         <f>_xlfn.STDEV.S(X6,X5,X3)</f>
         <v>41171.119416386478</v>
       </c>
-      <c r="Y11" s="5">
+      <c r="Y11" s="3">
         <f>AVERAGE(T11,V11,W11,X11)</f>
         <v>40344.278082603421</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="6"/>
+      <c r="S12" s="4"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S13" s="6"/>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S14" s="5"/>
+      <c r="S14" s="3"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D7">
